--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welmer\Documents\UiPath\Generate Yearly Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welmer\Documents\UiPath\Generate-Yearly-Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA5CB6-E3F2-4DBA-856B-380233D00FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA35F900-6BAD-4395-A17B-14A41A2AED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -185,6 +185,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -203,6 +204,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,8 +244,36 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1A63C238-920C-4432-B237-82EBFF2AAD77}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,12 +588,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -611,7 +641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -621,7 +651,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1657,12 +1687,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1699,7 +1729,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1824,7 +1854,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2820,12 +2850,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
